--- a/AAII_Financials/Quarterly/PTGCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTGCY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>PTGCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,68 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42643</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42460</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,8 +760,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -791,8 +798,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +836,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +854,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,8 +890,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,8 +928,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,19 +960,22 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -979,10 +1002,13 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,43 +1019,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-11600</v>
+        <v>2600</v>
       </c>
       <c r="E17" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
-        <v>16400</v>
-      </c>
       <c r="G17" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1037,34 +1067,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-16400</v>
-      </c>
       <c r="G18" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,8 +1111,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1087,34 +1121,37 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
-        <v>-951300</v>
-      </c>
       <c r="H20" s="3">
+        <v>-959600</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-49500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-75600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-654800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1122,34 +1159,37 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-3100</v>
+        <v>41400</v>
       </c>
       <c r="F21" s="3">
-        <v>-16800</v>
+        <v>-3200</v>
       </c>
       <c r="G21" s="3">
-        <v>-953400</v>
+        <v>-16900</v>
       </c>
       <c r="H21" s="3">
+        <v>-961700</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-52500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-77300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-653700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1183,57 +1223,63 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>41000</v>
+        <v>-4400</v>
       </c>
       <c r="E23" s="3">
-        <v>-3100</v>
+        <v>41400</v>
       </c>
       <c r="F23" s="3">
-        <v>-16800</v>
+        <v>-3200</v>
       </c>
       <c r="G23" s="3">
-        <v>-953300</v>
+        <v>-16900</v>
       </c>
       <c r="H23" s="3">
+        <v>-961700</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-52500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-77300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-653700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13800</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>13900</v>
       </c>
       <c r="F24" s="3">
-        <v>-13800</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>-13900</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1253,8 +1299,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>27200</v>
+        <v>-4500</v>
       </c>
       <c r="E26" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-3000</v>
-      </c>
       <c r="G26" s="3">
-        <v>-953400</v>
+        <v>-3100</v>
       </c>
       <c r="H26" s="3">
+        <v>-961700</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-6300</v>
-      </c>
       <c r="J26" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-52500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-77300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-653700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27200</v>
+        <v>-4500</v>
       </c>
       <c r="E27" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-3000</v>
-      </c>
       <c r="G27" s="3">
-        <v>-953400</v>
+        <v>-3100</v>
       </c>
       <c r="H27" s="3">
+        <v>-961700</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-6300</v>
-      </c>
       <c r="J27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-52500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-77300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-653700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1451,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1419,17 +1480,20 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,8 +1565,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1507,69 +1577,75 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
-        <v>951300</v>
-      </c>
       <c r="H32" s="3">
+        <v>959600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>49500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>75600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>654800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27200</v>
+        <v>-4500</v>
       </c>
       <c r="E33" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-3000</v>
-      </c>
       <c r="G33" s="3">
-        <v>-953400</v>
+        <v>-3100</v>
       </c>
       <c r="H33" s="3">
+        <v>-961700</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-6300</v>
-      </c>
       <c r="J33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-52500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-77300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-653700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27200</v>
+        <v>-4500</v>
       </c>
       <c r="E35" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-3000</v>
-      </c>
       <c r="G35" s="3">
-        <v>-953400</v>
+        <v>-3100</v>
       </c>
       <c r="H35" s="3">
+        <v>-961700</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-6300</v>
-      </c>
       <c r="J35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-52500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-77300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-653700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42643</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42460</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,43 +1794,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24700</v>
+        <v>19900</v>
       </c>
       <c r="E41" s="3">
-        <v>41800</v>
+        <v>24900</v>
       </c>
       <c r="F41" s="3">
-        <v>33100</v>
+        <v>42200</v>
       </c>
       <c r="G41" s="3">
-        <v>27600</v>
+        <v>33400</v>
       </c>
       <c r="H41" s="3">
-        <v>25300</v>
+        <v>27900</v>
       </c>
       <c r="I41" s="3">
-        <v>31800</v>
+        <v>25500</v>
       </c>
       <c r="J41" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K41" s="3">
         <v>34800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>40100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>75800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,43 +1868,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>400</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
       </c>
       <c r="M43" s="3">
+        <v>400</v>
+      </c>
+      <c r="N43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1848,133 +1944,145 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27200</v>
+        <v>20100</v>
       </c>
       <c r="E46" s="3">
-        <v>43900</v>
+        <v>27500</v>
       </c>
       <c r="F46" s="3">
-        <v>35100</v>
+        <v>44300</v>
       </c>
       <c r="G46" s="3">
-        <v>27900</v>
+        <v>35400</v>
       </c>
       <c r="H46" s="3">
-        <v>25700</v>
+        <v>28100</v>
       </c>
       <c r="I46" s="3">
-        <v>32300</v>
+        <v>25900</v>
       </c>
       <c r="J46" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K46" s="3">
         <v>35200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>76500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>76800</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>132500</v>
+        <v>69400</v>
       </c>
       <c r="E47" s="3">
-        <v>51500</v>
+        <v>133600</v>
       </c>
       <c r="F47" s="3">
-        <v>157100</v>
+        <v>51900</v>
       </c>
       <c r="G47" s="3">
-        <v>184300</v>
+        <v>158500</v>
       </c>
       <c r="H47" s="3">
-        <v>216700</v>
+        <v>185900</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>218600</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>122900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>111900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
       </c>
       <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
         <v>200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -1983,13 +2091,16 @@
         <v>300</v>
       </c>
       <c r="L48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2023,8 +2134,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,43 +2210,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>70800</v>
+        <v>69800</v>
       </c>
       <c r="E52" s="3">
-        <v>82000</v>
+        <v>71400</v>
       </c>
       <c r="F52" s="3">
-        <v>82800</v>
+        <v>82700</v>
       </c>
       <c r="G52" s="3">
-        <v>83200</v>
+        <v>83500</v>
       </c>
       <c r="H52" s="3">
-        <v>96500</v>
+        <v>83900</v>
       </c>
       <c r="I52" s="3">
-        <v>95900</v>
+        <v>97300</v>
       </c>
       <c r="J52" s="3">
+        <v>96700</v>
+      </c>
+      <c r="K52" s="3">
         <v>95700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>152500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>165100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,43 +2286,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>230600</v>
+        <v>159600</v>
       </c>
       <c r="E54" s="3">
-        <v>177500</v>
+        <v>232600</v>
       </c>
       <c r="F54" s="3">
-        <v>275100</v>
+        <v>179100</v>
       </c>
       <c r="G54" s="3">
-        <v>295500</v>
+        <v>277500</v>
       </c>
       <c r="H54" s="3">
-        <v>339100</v>
+        <v>298100</v>
       </c>
       <c r="I54" s="3">
-        <v>128500</v>
+        <v>342000</v>
       </c>
       <c r="J54" s="3">
+        <v>129600</v>
+      </c>
+      <c r="K54" s="3">
         <v>254100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>305400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>297000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>362900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,31 +2358,32 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2261,18 +2392,21 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2298,89 +2432,98 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16100</v>
+        <v>13400</v>
       </c>
       <c r="E59" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="F59" s="3">
-        <v>16000</v>
+        <v>16800</v>
       </c>
       <c r="G59" s="3">
-        <v>7900</v>
+        <v>16200</v>
       </c>
       <c r="H59" s="3">
-        <v>3700</v>
+        <v>8000</v>
       </c>
       <c r="I59" s="3">
-        <v>10000</v>
+        <v>3800</v>
       </c>
       <c r="J59" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K59" s="3">
         <v>11600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16100</v>
+        <v>13600</v>
       </c>
       <c r="E60" s="3">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="F60" s="3">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="G60" s="3">
-        <v>8000</v>
+        <v>17700</v>
       </c>
       <c r="H60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I60" s="3">
         <v>3800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -2403,22 +2546,25 @@
       <c r="M61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2429,17 +2575,20 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,43 +2698,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16200</v>
+        <v>13900</v>
       </c>
       <c r="E66" s="3">
-        <v>16900</v>
+        <v>16300</v>
       </c>
       <c r="F66" s="3">
-        <v>17600</v>
+        <v>17100</v>
       </c>
       <c r="G66" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H66" s="3">
         <v>8100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3900</v>
       </c>
-      <c r="I66" s="3">
-        <v>10200</v>
-      </c>
       <c r="J66" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K66" s="3">
         <v>12000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2828,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +2866,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,43 +2904,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>382200</v>
+        <v>317300</v>
       </c>
       <c r="E72" s="3">
-        <v>328300</v>
+        <v>385500</v>
       </c>
       <c r="F72" s="3">
-        <v>425300</v>
+        <v>331200</v>
       </c>
       <c r="G72" s="3">
-        <v>455200</v>
+        <v>429000</v>
       </c>
       <c r="H72" s="3">
-        <v>502900</v>
+        <v>459100</v>
       </c>
       <c r="I72" s="3">
-        <v>286100</v>
+        <v>507300</v>
       </c>
       <c r="J72" s="3">
+        <v>288600</v>
+      </c>
+      <c r="K72" s="3">
         <v>409900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>464400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>461800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>528800</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,43 +3056,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>214400</v>
+        <v>145700</v>
       </c>
       <c r="E76" s="3">
-        <v>160600</v>
+        <v>216300</v>
       </c>
       <c r="F76" s="3">
-        <v>257500</v>
+        <v>162000</v>
       </c>
       <c r="G76" s="3">
-        <v>287400</v>
+        <v>259800</v>
       </c>
       <c r="H76" s="3">
-        <v>335200</v>
+        <v>289900</v>
       </c>
       <c r="I76" s="3">
-        <v>118300</v>
+        <v>338100</v>
       </c>
       <c r="J76" s="3">
+        <v>119400</v>
+      </c>
+      <c r="K76" s="3">
         <v>242200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>293000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>282700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>351400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42643</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42460</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27200</v>
+        <v>-4500</v>
       </c>
       <c r="E81" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-3000</v>
-      </c>
       <c r="G81" s="3">
-        <v>-953400</v>
+        <v>-3100</v>
       </c>
       <c r="H81" s="3">
+        <v>-961700</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-6300</v>
-      </c>
       <c r="J81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-52500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-77300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-653700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,8 +3231,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3068,8 +3267,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3457,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2400</v>
       </c>
-      <c r="H89" s="3">
-        <v>-6600</v>
-      </c>
       <c r="I89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,16 +3513,17 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -3319,17 +3540,20 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,25 +3625,28 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13800</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>11900</v>
+        <v>-14000</v>
       </c>
       <c r="F94" s="3">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="G94" s="3">
         <v>100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3425,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>100</v>
@@ -3433,8 +3663,11 @@
       <c r="M94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3475,16 +3709,19 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-29100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,43 +3831,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-31000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3632,65 +3881,71 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-17100</v>
+        <v>-5100</v>
       </c>
       <c r="E102" s="3">
-        <v>8800</v>
+        <v>-17200</v>
       </c>
       <c r="F102" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G102" s="3">
         <v>5500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2400</v>
       </c>
-      <c r="H102" s="3">
-        <v>-6500</v>
-      </c>
       <c r="I102" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="J102" s="3">
         <v>-3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-32700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTGCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTGCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>PTGCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,72 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42643</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42460</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -763,8 +767,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -801,8 +808,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +849,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,8 +948,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,14 +983,17 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,7 +1001,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1005,10 +1028,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,46 +1046,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="E17" s="3">
-        <v>-11700</v>
+        <v>2800</v>
       </c>
       <c r="F17" s="3">
-        <v>2300</v>
+        <v>-12500</v>
       </c>
       <c r="G17" s="3">
-        <v>16500</v>
+        <v>2500</v>
       </c>
       <c r="H17" s="3">
-        <v>2100</v>
+        <v>17700</v>
       </c>
       <c r="I17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1067,37 +1097,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>11700</v>
+        <v>-2800</v>
       </c>
       <c r="F18" s="3">
-        <v>-2300</v>
+        <v>12500</v>
       </c>
       <c r="G18" s="3">
-        <v>-16500</v>
+        <v>-2500</v>
       </c>
       <c r="H18" s="3">
-        <v>-2100</v>
+        <v>-17700</v>
       </c>
       <c r="I18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,8 +1145,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1121,37 +1155,40 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>29600</v>
+        <v>-1900</v>
       </c>
       <c r="F20" s="3">
-        <v>-800</v>
+        <v>31700</v>
       </c>
       <c r="G20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>-959600</v>
-      </c>
       <c r="I20" s="3">
+        <v>-1024800</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-49500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-75600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-654800</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1159,37 +1196,40 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>41400</v>
+        <v>-4600</v>
       </c>
       <c r="F21" s="3">
-        <v>-3200</v>
+        <v>44200</v>
       </c>
       <c r="G21" s="3">
-        <v>-16900</v>
+        <v>-3400</v>
       </c>
       <c r="H21" s="3">
-        <v>-961700</v>
+        <v>-18000</v>
       </c>
       <c r="I21" s="3">
-        <v>200</v>
+        <v>-1027100</v>
       </c>
       <c r="J21" s="3">
+        <v>300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-52500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-77300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-653700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1226,63 +1266,69 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4400</v>
+        <v>-2000</v>
       </c>
       <c r="E23" s="3">
-        <v>41400</v>
+        <v>-4700</v>
       </c>
       <c r="F23" s="3">
-        <v>-3200</v>
+        <v>44200</v>
       </c>
       <c r="G23" s="3">
-        <v>-16900</v>
+        <v>-3400</v>
       </c>
       <c r="H23" s="3">
-        <v>-961700</v>
+        <v>-18100</v>
       </c>
       <c r="I23" s="3">
+        <v>-1027100</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-52500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-77300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-653700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>13900</v>
-      </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="G24" s="3">
-        <v>-13900</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-14800</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1302,8 +1348,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4500</v>
+        <v>-2100</v>
       </c>
       <c r="E26" s="3">
-        <v>27500</v>
+        <v>-4800</v>
       </c>
       <c r="F26" s="3">
-        <v>-3200</v>
+        <v>29300</v>
       </c>
       <c r="G26" s="3">
-        <v>-3100</v>
+        <v>-3400</v>
       </c>
       <c r="H26" s="3">
-        <v>-961700</v>
+        <v>-3300</v>
       </c>
       <c r="I26" s="3">
+        <v>-1027100</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-52500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-77300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-653700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4500</v>
+        <v>-2100</v>
       </c>
       <c r="E27" s="3">
-        <v>27500</v>
+        <v>-4800</v>
       </c>
       <c r="F27" s="3">
-        <v>-3200</v>
+        <v>29300</v>
       </c>
       <c r="G27" s="3">
-        <v>-3100</v>
+        <v>-3400</v>
       </c>
       <c r="H27" s="3">
-        <v>-961700</v>
+        <v>-3300</v>
       </c>
       <c r="I27" s="3">
+        <v>-1027100</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-52500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-77300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-653700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1483,17 +1544,20 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,8 +1635,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1577,75 +1647,81 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-29600</v>
+        <v>1900</v>
       </c>
       <c r="F32" s="3">
-        <v>800</v>
+        <v>-31700</v>
       </c>
       <c r="G32" s="3">
+        <v>900</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>959600</v>
-      </c>
       <c r="I32" s="3">
+        <v>1024800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>49500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>75600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>654800</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4500</v>
+        <v>-2100</v>
       </c>
       <c r="E33" s="3">
-        <v>27500</v>
+        <v>-4800</v>
       </c>
       <c r="F33" s="3">
-        <v>-3200</v>
+        <v>29300</v>
       </c>
       <c r="G33" s="3">
-        <v>-3100</v>
+        <v>-3400</v>
       </c>
       <c r="H33" s="3">
-        <v>-961700</v>
+        <v>-3300</v>
       </c>
       <c r="I33" s="3">
+        <v>-1027100</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-52500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-77300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-653700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4500</v>
+        <v>-2100</v>
       </c>
       <c r="E35" s="3">
-        <v>27500</v>
+        <v>-4800</v>
       </c>
       <c r="F35" s="3">
-        <v>-3200</v>
+        <v>29300</v>
       </c>
       <c r="G35" s="3">
-        <v>-3100</v>
+        <v>-3400</v>
       </c>
       <c r="H35" s="3">
-        <v>-961700</v>
+        <v>-3300</v>
       </c>
       <c r="I35" s="3">
+        <v>-1027100</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-52500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-77300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-653700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42643</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42460</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,46 +1881,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19900</v>
+        <v>25800</v>
       </c>
       <c r="E41" s="3">
-        <v>24900</v>
+        <v>21200</v>
       </c>
       <c r="F41" s="3">
-        <v>42200</v>
+        <v>26600</v>
       </c>
       <c r="G41" s="3">
-        <v>33400</v>
+        <v>45100</v>
       </c>
       <c r="H41" s="3">
-        <v>27900</v>
+        <v>35700</v>
       </c>
       <c r="I41" s="3">
-        <v>25500</v>
+        <v>29800</v>
       </c>
       <c r="J41" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K41" s="3">
         <v>32100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>75800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>76200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,46 +1961,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>2400</v>
-      </c>
       <c r="F43" s="3">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="G43" s="3">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
       </c>
       <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1947,122 +2043,134 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20100</v>
+        <v>26600</v>
       </c>
       <c r="E46" s="3">
-        <v>27500</v>
+        <v>21500</v>
       </c>
       <c r="F46" s="3">
-        <v>44300</v>
+        <v>29300</v>
       </c>
       <c r="G46" s="3">
-        <v>35400</v>
+        <v>47300</v>
       </c>
       <c r="H46" s="3">
-        <v>28100</v>
+        <v>37800</v>
       </c>
       <c r="I46" s="3">
-        <v>25900</v>
+        <v>30000</v>
       </c>
       <c r="J46" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K46" s="3">
         <v>32600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>76500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>76800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69400</v>
+        <v>76300</v>
       </c>
       <c r="E47" s="3">
-        <v>133600</v>
+        <v>74100</v>
       </c>
       <c r="F47" s="3">
-        <v>51900</v>
+        <v>142700</v>
       </c>
       <c r="G47" s="3">
-        <v>158500</v>
+        <v>55500</v>
       </c>
       <c r="H47" s="3">
-        <v>185900</v>
+        <v>169300</v>
       </c>
       <c r="I47" s="3">
-        <v>218600</v>
+        <v>198500</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>233400</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>122900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>111900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2070,13 +2178,13 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -2085,7 +2193,7 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
@@ -2094,13 +2202,16 @@
         <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,46 +2330,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>69800</v>
+        <v>74500</v>
       </c>
       <c r="E52" s="3">
-        <v>71400</v>
+        <v>74500</v>
       </c>
       <c r="F52" s="3">
-        <v>82700</v>
+        <v>76300</v>
       </c>
       <c r="G52" s="3">
-        <v>83500</v>
+        <v>88300</v>
       </c>
       <c r="H52" s="3">
-        <v>83900</v>
+        <v>89200</v>
       </c>
       <c r="I52" s="3">
-        <v>97300</v>
+        <v>89700</v>
       </c>
       <c r="J52" s="3">
+        <v>104000</v>
+      </c>
+      <c r="K52" s="3">
         <v>96700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>95700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>152500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>165100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>165600</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>159600</v>
+        <v>177700</v>
       </c>
       <c r="E54" s="3">
-        <v>232600</v>
+        <v>170500</v>
       </c>
       <c r="F54" s="3">
-        <v>179100</v>
+        <v>248400</v>
       </c>
       <c r="G54" s="3">
-        <v>277500</v>
+        <v>191300</v>
       </c>
       <c r="H54" s="3">
-        <v>298100</v>
+        <v>296400</v>
       </c>
       <c r="I54" s="3">
-        <v>342000</v>
+        <v>318300</v>
       </c>
       <c r="J54" s="3">
+        <v>365300</v>
+      </c>
+      <c r="K54" s="3">
         <v>129600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>254100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>305400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>297000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>362900</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,34 +2489,35 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>1500</v>
-      </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -2395,10 +2526,13 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2408,8 +2542,8 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2435,84 +2569,93 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13400</v>
+        <v>21600</v>
       </c>
       <c r="E59" s="3">
-        <v>16200</v>
+        <v>14300</v>
       </c>
       <c r="F59" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="G59" s="3">
-        <v>16200</v>
+        <v>18000</v>
       </c>
       <c r="H59" s="3">
-        <v>8000</v>
+        <v>17300</v>
       </c>
       <c r="I59" s="3">
-        <v>3800</v>
+        <v>8600</v>
       </c>
       <c r="J59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K59" s="3">
         <v>10100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13600</v>
+        <v>21700</v>
       </c>
       <c r="E60" s="3">
-        <v>16200</v>
+        <v>14600</v>
       </c>
       <c r="F60" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="G60" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="H60" s="3">
-        <v>8100</v>
+        <v>18900</v>
       </c>
       <c r="I60" s="3">
-        <v>3800</v>
+        <v>8600</v>
       </c>
       <c r="J60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K60" s="3">
         <v>10100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2520,7 +2663,7 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -2549,25 +2692,28 @@
       <c r="N61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -2578,17 +2724,20 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,46 +2856,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13900</v>
+        <v>22000</v>
       </c>
       <c r="E66" s="3">
-        <v>16300</v>
+        <v>14900</v>
       </c>
       <c r="F66" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="G66" s="3">
-        <v>17700</v>
+        <v>18300</v>
       </c>
       <c r="H66" s="3">
-        <v>8100</v>
+        <v>19000</v>
       </c>
       <c r="I66" s="3">
-        <v>3900</v>
+        <v>8700</v>
       </c>
       <c r="J66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K66" s="3">
         <v>10300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>317300</v>
+        <v>339100</v>
       </c>
       <c r="E72" s="3">
-        <v>385500</v>
+        <v>338900</v>
       </c>
       <c r="F72" s="3">
-        <v>331200</v>
+        <v>411700</v>
       </c>
       <c r="G72" s="3">
-        <v>429000</v>
+        <v>353700</v>
       </c>
       <c r="H72" s="3">
-        <v>459100</v>
+        <v>458200</v>
       </c>
       <c r="I72" s="3">
-        <v>507300</v>
+        <v>490300</v>
       </c>
       <c r="J72" s="3">
+        <v>541800</v>
+      </c>
+      <c r="K72" s="3">
         <v>288600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>409900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>464400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>461800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>528800</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>145700</v>
+        <v>155800</v>
       </c>
       <c r="E76" s="3">
-        <v>216300</v>
+        <v>155600</v>
       </c>
       <c r="F76" s="3">
-        <v>162000</v>
+        <v>231000</v>
       </c>
       <c r="G76" s="3">
-        <v>259800</v>
+        <v>173000</v>
       </c>
       <c r="H76" s="3">
-        <v>289900</v>
+        <v>277400</v>
       </c>
       <c r="I76" s="3">
-        <v>338100</v>
+        <v>309600</v>
       </c>
       <c r="J76" s="3">
+        <v>361100</v>
+      </c>
+      <c r="K76" s="3">
         <v>119400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>242200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>293000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>282700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>351400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42643</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42460</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4500</v>
+        <v>-2100</v>
       </c>
       <c r="E81" s="3">
-        <v>27500</v>
+        <v>-4800</v>
       </c>
       <c r="F81" s="3">
-        <v>-3200</v>
+        <v>29300</v>
       </c>
       <c r="G81" s="3">
-        <v>-3100</v>
+        <v>-3400</v>
       </c>
       <c r="H81" s="3">
-        <v>-961700</v>
+        <v>-3300</v>
       </c>
       <c r="I81" s="3">
+        <v>-1027100</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-52500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-77300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-653700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3270,8 +3469,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2600</v>
+        <v>4600</v>
       </c>
       <c r="E89" s="3">
-        <v>-3300</v>
+        <v>-2800</v>
       </c>
       <c r="F89" s="3">
-        <v>-3200</v>
+        <v>-3500</v>
       </c>
       <c r="G89" s="3">
-        <v>5400</v>
+        <v>-3500</v>
       </c>
       <c r="H89" s="3">
-        <v>2400</v>
+        <v>5800</v>
       </c>
       <c r="I89" s="3">
-        <v>-6700</v>
+        <v>2600</v>
       </c>
       <c r="J89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13900</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,8 +3734,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3523,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3543,17 +3764,20 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,28 +3855,31 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-14000</v>
-      </c>
       <c r="F94" s="3">
-        <v>12000</v>
+        <v>-14900</v>
       </c>
       <c r="G94" s="3">
-        <v>100</v>
+        <v>12800</v>
       </c>
       <c r="H94" s="3">
         <v>100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -3658,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>100</v>
@@ -3666,8 +3896,11 @@
       <c r="N94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3712,16 +3946,19 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-29100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,46 +4077,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-31000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3884,68 +4133,74 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>100</v>
-      </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>100</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5100</v>
+        <v>4600</v>
       </c>
       <c r="E102" s="3">
-        <v>-17200</v>
+        <v>-5400</v>
       </c>
       <c r="F102" s="3">
-        <v>8900</v>
+        <v>-18400</v>
       </c>
       <c r="G102" s="3">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="H102" s="3">
-        <v>2400</v>
+        <v>5900</v>
       </c>
       <c r="I102" s="3">
-        <v>-6600</v>
+        <v>2500</v>
       </c>
       <c r="J102" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-32700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14400</v>
       </c>
     </row>
